--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexandra.veizu\Documents\Reframework_update_UiPath_Services\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alen\Documents\UiPath\EDITransaltor\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE7DFF5-5AFC-4110-8461-609B0BDD5551}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50951C2-DB55-47CA-9E26-3E4ACB8085EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28035" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>Name</t>
   </si>
@@ -88,10 +88,6 @@
   </si>
   <si>
     <t>Framework</t>
-  </si>
-  <si>
-    <t>ProcessABCQueue</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
@@ -102,33 +98,74 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with a system exception. Must be an integer value.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction succesful.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction failed with business exception.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction failed with application exception.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Calling Get Transaction Data.</t>
+  </si>
+  <si>
+    <t>OrchestratorAssetFolder</t>
+  </si>
+  <si>
+    <t>AV_INC_FTPCredentials</t>
+  </si>
+  <si>
+    <t>INC_FTPCredentials</t>
+  </si>
+  <si>
+    <t>INC_FTPFilePath</t>
+  </si>
+  <si>
+    <t>/ARLO_PROD/</t>
+  </si>
+  <si>
+    <t>AV_INC_FTP_Port</t>
+  </si>
+  <si>
+    <t>AV_INC_FTP_Server</t>
+  </si>
+  <si>
+    <t>INC_FTP_Port</t>
+  </si>
+  <si>
+    <t>INC_FTP_Server</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>C:\Users\Alen\Documents\Bomisco Projects\EDI\EDI Ui path</t>
+  </si>
+  <si>
+    <t>EDI_ProcessingFolder</t>
+  </si>
+  <si>
+    <t>EDITranslator</t>
+  </si>
+  <si>
     <t>OrchestratorQueueName</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with a system exception. Must be an integer value.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction succesful.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction failed with business exception.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction failed with application exception.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Calling Get Transaction Data.</t>
-  </si>
-  <si>
-    <t>OrchestratorAssetFolder</t>
+  </si>
+  <si>
+    <t>MappingFilePath</t>
+  </si>
+  <si>
+    <t>C:\Users\Alen\Documents\UiPath\EDITransaltor\Mapping.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -152,6 +189,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF485056"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -173,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -183,6 +226,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -547,13 +591,13 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
@@ -565,15 +609,43 @@
         <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1624,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1648,7 +1720,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
@@ -1670,7 +1742,7 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
@@ -1681,7 +1753,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -1692,7 +1764,7 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2682,8 +2754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2702,7 +2774,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -2730,8 +2802,28 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alen\Documents\UiPath\EDITransaltor\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50951C2-DB55-47CA-9E26-3E4ACB8085EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50914E1-F0F6-4ACC-B294-ED18E1035141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28035" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>C:\Users\Alen\Documents\UiPath\EDITransaltor\Mapping.xlsx</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -544,7 +547,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -647,7 +650,11 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alen\Documents\UiPath\EDITransaltor\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\UiPath\EDITranslation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50914E1-F0F6-4ACC-B294-ED18E1035141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1564D7-C032-4573-B92A-A431FB2D9EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28035" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="21600" windowHeight="11265" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -143,9 +143,6 @@
     <t>Default</t>
   </si>
   <si>
-    <t>C:\Users\Alen\Documents\Bomisco Projects\EDI\EDI Ui path</t>
-  </si>
-  <si>
     <t>EDI_ProcessingFolder</t>
   </si>
   <si>
@@ -158,17 +155,41 @@
     <t>MappingFilePath</t>
   </si>
   <si>
-    <t>C:\Users\Alen\Documents\UiPath\EDITransaltor\Mapping.xlsx</t>
-  </si>
-  <si>
-    <t>Test</t>
+    <t>C:\EDI\Mapping File\Mapping.xlsx</t>
+  </si>
+  <si>
+    <t>AV_EDI_Recipients</t>
+  </si>
+  <si>
+    <t>Recipients</t>
+  </si>
+  <si>
+    <t>SenderAccount</t>
+  </si>
+  <si>
+    <t>arlo@bomisco.com</t>
+  </si>
+  <si>
+    <t>C:\EDI\Processing Folder</t>
+  </si>
+  <si>
+    <t>usp_GenerateAggregate</t>
+  </si>
+  <si>
+    <t>AGGStoredProcedure</t>
+  </si>
+  <si>
+    <t>AV_ConnectionString</t>
+  </si>
+  <si>
+    <t>ConnectionString</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -198,6 +219,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF485056"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -219,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -230,6 +257,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,16 +575,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.54296875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="81.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -594,17 +623,17 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="30">
+    <row r="4" spans="1:26" ht="29">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -635,24 +664,34 @@
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
         <v>43</v>
       </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" t="s">
-        <v>45</v>
+      <c r="A12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1653,12 +1692,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="75.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1695,7 +1734,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" spans="1:26" ht="29">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2761,16 +2800,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.81640625" customWidth="1"/>
+    <col min="2" max="2" width="30.1796875" customWidth="1"/>
+    <col min="3" max="3" width="60.26953125" customWidth="1"/>
+    <col min="4" max="26" width="65.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -2831,8 +2870,28 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
@@ -3831,5 +3890,6 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>